--- a/VCSim/excel/xxm-Delay.xlsx
+++ b/VCSim/excel/xxm-Delay.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="21600" windowHeight="13740" tabRatio="768" activeTab="7"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13740" tabRatio="768" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -26,8 +26,7 @@
     <definedName name="V16E2D5.0N100TargetRandomServerNodes" localSheetId="2">'5'!$A$1:$P$102</definedName>
     <definedName name="V16E2D50.0N100TargetRandomServerNodes" localSheetId="5">'50'!$A$1:$P$102</definedName>
   </definedNames>
-  <calcPr calcId="125725" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -316,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -335,10 +334,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17739435009648183"/>
-          <c:y val="4.6206116500630792E-2"/>
-          <c:w val="0.79808755612865467"/>
-          <c:h val="0.79512623076811528"/>
+          <c:x val="0.153225174647731"/>
+          <c:y val="0.0462061165006308"/>
+          <c:w val="0.822256742076425"/>
+          <c:h val="0.795126230768115"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -359,6 +358,9 @@
           </c:tx>
           <c:spPr>
             <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
@@ -372,25 +374,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,25 +404,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>774.30314490000001</c:v>
+                  <c:v>774.3031449</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>834.12258350000013</c:v>
+                  <c:v>834.1225835000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1008.4231940999997</c:v>
+                  <c:v>1008.4231941</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1150.6882153000001</c:v>
+                  <c:v>1150.6882153</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1748.8985892999997</c:v>
+                  <c:v>1748.8985893</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2745.5754388000005</c:v>
+                  <c:v>2745.5754388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4725.6775550999982</c:v>
+                  <c:v>4725.677555099998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,6 +442,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -450,25 +459,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,36 +489,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>539.29062863000024</c:v>
+                  <c:v>539.2906286300002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>601.02664862999984</c:v>
+                  <c:v>601.0266486299998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>782.82229788999985</c:v>
+                  <c:v>782.8222978899998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>896.94670234000023</c:v>
+                  <c:v>896.9467023400002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1568.8160496999992</c:v>
+                  <c:v>1568.816049699999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2578.1643647999995</c:v>
+                  <c:v>2578.164364799999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4611.114622600001</c:v>
+                  <c:v>4611.1146226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84586496"/>
-        <c:axId val="84588032"/>
+        <c:axId val="814993112"/>
+        <c:axId val="815002648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84586496"/>
+        <c:axId val="814993112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -535,14 +544,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84588032"/>
+        <c:crossAx val="815002648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84588032"/>
+        <c:axId val="815002648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +581,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84586496"/>
+        <c:crossAx val="814993112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -583,10 +592,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18105681911712251"/>
-          <c:y val="0.13934078682153681"/>
-          <c:w val="0.28003493465755808"/>
-          <c:h val="0.16883223851162252"/>
+          <c:x val="0.181056819117123"/>
+          <c:y val="0.139340786821537"/>
+          <c:w val="0.261908001681059"/>
+          <c:h val="0.168832238511623"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -604,7 +613,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -622,10 +631,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.19897798115549692"/>
-          <c:y val="3.1386448594752099E-2"/>
-          <c:w val="0.78124930718738694"/>
-          <c:h val="0.79583696666015924"/>
+          <c:x val="0.178806469161098"/>
+          <c:y val="0.0313864485947521"/>
+          <c:w val="0.801420737687668"/>
+          <c:h val="0.795836966660159"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -646,6 +655,9 @@
           </c:tx>
           <c:spPr>
             <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:prstDash val="sysDash"/>
             </a:ln>
           </c:spPr>
@@ -659,25 +671,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -689,25 +701,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>50365.028005199973</c:v>
+                  <c:v>50365.02800519997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54627.093778999981</c:v>
+                  <c:v>54627.09377899998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70101.422107200007</c:v>
+                  <c:v>70101.42210720001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77549.815859999959</c:v>
+                  <c:v>77549.81585999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>122715.83636</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191882.36949299995</c:v>
+                  <c:v>191882.3694929999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>332560.25793799991</c:v>
+                  <c:v>332560.2579379999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,6 +739,13 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="800000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -737,25 +756,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -767,22 +786,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>22506.519653824005</c:v>
+                  <c:v>22506.51965382401</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25417.993227272997</c:v>
+                  <c:v>25417.993227273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35151.444389939992</c:v>
+                  <c:v>35151.44438994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37416.707846350007</c:v>
+                  <c:v>37416.70784635001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70346.066968600018</c:v>
+                  <c:v>70346.06696860001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>114023.18571410001</c:v>
+                  <c:v>114023.1857141</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>207243.9051580001</c:v>
@@ -792,11 +811,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="95900800"/>
-        <c:axId val="96768000"/>
+        <c:axId val="815068952"/>
+        <c:axId val="815077144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95900800"/>
+        <c:axId val="815068952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,14 +845,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96768000"/>
+        <c:crossAx val="815077144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96768000"/>
+        <c:axId val="815077144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +882,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95900800"/>
+        <c:crossAx val="815068952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -874,10 +893,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.24032828282828284"/>
-          <c:y val="0.11034728097004405"/>
-          <c:w val="0.31017676767676766"/>
-          <c:h val="0.13284050237521963"/>
+          <c:x val="0.220156844993468"/>
+          <c:y val="0.13917599489253"/>
+          <c:w val="0.267816757398517"/>
+          <c:h val="0.13284050237522"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -895,7 +914,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1318,29 +1337,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="J70" workbookViewId="0">
       <selection activeCell="O103" sqref="O103:O104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="17.75" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6489,7 +6507,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6499,29 +6516,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11670,7 +11686,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11680,29 +11695,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16851,7 +16865,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16861,29 +16874,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="A103" sqref="A103:P105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -22032,7 +22044,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -22042,29 +22053,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A92" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -27211,9 +27221,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -27223,29 +27233,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32392,9 +32401,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -32404,29 +32413,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -37573,9 +37581,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -37585,15 +37593,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -37756,7 +37763,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -37767,15 +37773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -37936,9 +37941,9 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/VCSim/excel/xxm-Delay.xlsx
+++ b/VCSim/excel/xxm-Delay.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13740" tabRatio="768" activeTab="8"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="14400" tabRatio="768" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="100" sheetId="7" r:id="rId7"/>
     <sheet name="DELAYTIMELINESS" sheetId="8" r:id="rId8"/>
     <sheet name="DELAYDISRUPTION" sheetId="9" r:id="rId9"/>
+    <sheet name="Both" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="V16E2D0.0N100TargetRandomServerNodes" localSheetId="0">'0'!$A$1:$P$102</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="65">
   <si>
     <t># ExperimentSet [id=resultsExperiments/timelinessDisruption/V16E2D0.0N100TargetRandomServerNodes</t>
   </si>
@@ -274,6 +275,26 @@
   </si>
   <si>
     <t>stdErr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>Quiescence</t>
+  </si>
+  <si>
+    <t>stdErr</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>stdErr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quiescence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,11 +535,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="814993112"/>
-        <c:axId val="815002648"/>
+        <c:axId val="537460664"/>
+        <c:axId val="537470248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="814993112"/>
+        <c:axId val="537460664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,18 +561,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="815002648"/>
+        <c:crossAx val="537470248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="815002648"/>
+        <c:axId val="537470248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -577,11 +597,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="814993112"/>
+        <c:crossAx val="537460664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -811,11 +830,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="815068952"/>
-        <c:axId val="815077144"/>
+        <c:axId val="537537592"/>
+        <c:axId val="537545784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="815068952"/>
+        <c:axId val="537537592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,18 +860,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="815077144"/>
+        <c:crossAx val="537545784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="815077144"/>
+        <c:axId val="537545784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,11 +896,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="815068952"/>
+        <c:crossAx val="537537592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -916,6 +933,449 @@
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.140849984913814"/>
+          <c:y val="0.0307915002193641"/>
+          <c:w val="0.740505111459337"/>
+          <c:h val="0.801372180017087"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quiescence Timeliness</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Both!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Both!$B$7:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>774.3031449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>834.1225835000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1008.4231941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1150.6882153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1748.8985893</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2745.5754388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4725.677555099998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VC Timeliness</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Both!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Both!$B$9:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>539.2906286300002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.0266486299998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>782.8222978899998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>896.9467023400002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1568.816049699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2578.164364799999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4611.1146226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="537591752"/>
+        <c:axId val="537599128"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Quiescence Disruption</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Both!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Both!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>50365.02800519997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54627.09377899998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70101.42210720001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77549.81585999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>122715.83636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>191882.3694929999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>332560.2579379999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>VC Disruption</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Both!$B$6:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Both!$B$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22506.51965382401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25417.993227273</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35151.44438994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37416.70784635001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70346.06696860001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>114023.1857141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207243.9051580001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="537617256"/>
+        <c:axId val="537603960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="537591752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Delay</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537599128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537599128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time to be ready for update</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537591752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="537603960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500000.0"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Loss of working time (x10000)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537617256"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="tenThousands"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="537617256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537603960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.178812344068858"/>
+          <c:y val="0.101069111229132"/>
+          <c:w val="0.326750078675271"/>
+          <c:h val="0.335984944697162"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -973,6 +1433,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447040</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6515,6 +7010,263 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <dimension ref="A6:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>774.30314490000001</v>
+      </c>
+      <c r="C7">
+        <v>834.12258350000013</v>
+      </c>
+      <c r="D7">
+        <v>1008.4231940999997</v>
+      </c>
+      <c r="E7">
+        <v>1150.6882153000001</v>
+      </c>
+      <c r="F7">
+        <v>1748.8985892999997</v>
+      </c>
+      <c r="G7">
+        <v>2745.5754388000005</v>
+      </c>
+      <c r="H7">
+        <v>4725.6775550999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>45.885109739436182</v>
+      </c>
+      <c r="C8">
+        <v>47.443466681639642</v>
+      </c>
+      <c r="D8">
+        <v>62.690858742073615</v>
+      </c>
+      <c r="E8">
+        <v>66.205563663708048</v>
+      </c>
+      <c r="F8">
+        <v>104.54864498081551</v>
+      </c>
+      <c r="G8">
+        <v>159.76668184496847</v>
+      </c>
+      <c r="H8">
+        <v>294.3963773479087</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>539.29062863000024</v>
+      </c>
+      <c r="C9">
+        <v>601.02664862999984</v>
+      </c>
+      <c r="D9">
+        <v>782.82229788999985</v>
+      </c>
+      <c r="E9">
+        <v>896.94670234000023</v>
+      </c>
+      <c r="F9">
+        <v>1568.8160496999992</v>
+      </c>
+      <c r="G9">
+        <v>2578.1643647999995</v>
+      </c>
+      <c r="H9">
+        <v>4611.114622600001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>45.885109739436182</v>
+      </c>
+      <c r="C10">
+        <v>42.904490406983449</v>
+      </c>
+      <c r="D10">
+        <v>57.562202629307407</v>
+      </c>
+      <c r="E10">
+        <v>59.662096082761934</v>
+      </c>
+      <c r="F10">
+        <v>106.73994562952093</v>
+      </c>
+      <c r="G10">
+        <v>162.29377527143743</v>
+      </c>
+      <c r="H10">
+        <v>318.35886965440511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>50365.028005199973</v>
+      </c>
+      <c r="C11">
+        <v>54627.093778999981</v>
+      </c>
+      <c r="D11">
+        <v>70101.422107200007</v>
+      </c>
+      <c r="E11">
+        <v>77549.815859999959</v>
+      </c>
+      <c r="F11">
+        <v>122715.83636</v>
+      </c>
+      <c r="G11">
+        <v>191882.36949299995</v>
+      </c>
+      <c r="H11">
+        <v>332560.25793799991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12">
+        <v>5530.6672425988663</v>
+      </c>
+      <c r="C12">
+        <v>6385.51434971873</v>
+      </c>
+      <c r="D12">
+        <v>8785.888009004826</v>
+      </c>
+      <c r="E12">
+        <v>9357.9311621974412</v>
+      </c>
+      <c r="F12">
+        <v>15155.049474935751</v>
+      </c>
+      <c r="G12">
+        <v>23704.196739960069</v>
+      </c>
+      <c r="H12">
+        <v>42678.751730191419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>22506.519653824005</v>
+      </c>
+      <c r="C13">
+        <v>25417.993227272997</v>
+      </c>
+      <c r="D13">
+        <v>35151.444389939992</v>
+      </c>
+      <c r="E13">
+        <v>37416.707846350007</v>
+      </c>
+      <c r="F13">
+        <v>70346.066968600018</v>
+      </c>
+      <c r="G13">
+        <v>114023.18571410001</v>
+      </c>
+      <c r="H13">
+        <v>207243.9051580001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>3145.1996313323457</v>
+      </c>
+      <c r="C14">
+        <v>3644.1595413812365</v>
+      </c>
+      <c r="D14">
+        <v>5218.9978826880279</v>
+      </c>
+      <c r="E14">
+        <v>5399.4561116124214</v>
+      </c>
+      <c r="F14">
+        <v>10179.461580215813</v>
+      </c>
+      <c r="G14">
+        <v>15370.229795935364</v>
+      </c>
+      <c r="H14">
+        <v>30866.172713396303</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:P105"/>
@@ -27221,7 +27973,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -32401,7 +33152,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -37597,7 +38347,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -37776,8 +38526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -37941,7 +38691,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
